--- a/testData/testdataexcel.xlsx
+++ b/testData/testdataexcel.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="28">
   <si>
     <t>Top Five Car Washing Services</t>
   </si>

--- a/testData/testdataexcel.xlsx
+++ b/testData/testdataexcel.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="28">
   <si>
     <t>Top Five Car Washing Services</t>
   </si>

--- a/testData/testdataexcel.xlsx
+++ b/testData/testdataexcel.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="28">
   <si>
     <t>Top Five Car Washing Services</t>
   </si>

--- a/testData/testdataexcel.xlsx
+++ b/testData/testdataexcel.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="28">
   <si>
     <t>Top Five Car Washing Services</t>
   </si>
@@ -546,52 +546,52 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/testData/testdataexcel.xlsx
+++ b/testData/testdataexcel.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="28">
   <si>
     <t>Top Five Car Washing Services</t>
   </si>
